--- a/assets/flip_opportunities.xlsx
+++ b/assets/flip_opportunities.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>ms_zoning</t>
+  </si>
+  <si>
     <t>gr_liv_area</t>
   </si>
   <si>
@@ -130,7 +133,13 @@
     <t>bsmt_half_bath</t>
   </si>
   <si>
-    <t>porch_sf</t>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>RL</t>
   </si>
   <si>
     <t>Maj2</t>
@@ -167,9 +176,6 @@
   </si>
   <si>
     <t>BrkFace</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>WdShing</t>
@@ -797,110 +803,110 @@
       <c r="B2">
         <v>1554</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
         <v>733</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2">
         <v>14584</v>
       </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5</v>
-      </c>
-      <c r="S2">
-        <v>1952</v>
       </c>
       <c r="T2">
         <v>1952</v>
       </c>
-      <c r="U2" t="s">
-        <v>83</v>
+      <c r="U2">
+        <v>1952</v>
       </c>
       <c r="V2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>93</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>2</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
       <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>4</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
         <v>93</v>
-      </c>
-      <c r="AI2">
-        <v>2</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -916,116 +922,116 @@
       <c r="B3">
         <v>727</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
         <v>720</v>
       </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
         <v>720</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3">
         <v>495</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3">
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3">
         <v>7879</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
         <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q3">
+        <v>78</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1920</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1950</v>
       </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>93</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>2</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
       <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>4</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>93</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1035,110 +1041,110 @@
       <c r="B4">
         <v>710</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>968</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>600</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4">
         <v>5925</v>
       </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1910</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1950</v>
       </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>93</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>2</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
       <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>6</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>94</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1154,116 +1160,116 @@
       <c r="B5">
         <v>728</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
         <v>797</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
         <v>245</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5">
         <v>9392</v>
       </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>1900</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1950</v>
       </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>93</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
       <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
         <v>5</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>93</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1273,116 +1279,116 @@
       <c r="B6">
         <v>709</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
         <v>612</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6">
         <v>5925</v>
       </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
         <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q6">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1940</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1950</v>
       </c>
-      <c r="U6" t="s">
-        <v>83</v>
-      </c>
       <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
         <v>62</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>4</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
+      <c r="AL6" t="s">
+        <v>93</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1392,119 +1398,119 @@
       <c r="B7">
         <v>308</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
         <v>952</v>
       </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
         <v>756</v>
       </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7">
         <v>8712</v>
       </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
         <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q7">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1896</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1950</v>
       </c>
-      <c r="U7" t="s">
-        <v>84</v>
-      </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>94</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>3</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
       <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
         <v>5</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>61</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
       </c>
       <c r="AK7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>93</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1514,113 +1520,113 @@
       <c r="B8">
         <v>2880</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
         <v>729</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>44</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8">
         <v>12366</v>
       </c>
-      <c r="L8" t="s">
-        <v>63</v>
-      </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
         <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>5</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1945</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1950</v>
       </c>
-      <c r="U8" t="s">
-        <v>83</v>
-      </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="X8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>93</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
       <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>5</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>93</v>
       </c>
       <c r="AM8">
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1630,38 +1636,38 @@
       <c r="B9">
         <v>2690</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
         <v>693</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
         <v>693</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
         <v>4118</v>
       </c>
-      <c r="L9" t="s">
-        <v>64</v>
-      </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
         <v>74</v>
@@ -1670,76 +1676,76 @@
         <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
       </c>
       <c r="R9">
         <v>4</v>
       </c>
       <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
         <v>1941</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1950</v>
       </c>
-      <c r="U9" t="s">
-        <v>83</v>
-      </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W9" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X9" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>2</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
       <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
         <v>4</v>
       </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>93</v>
       </c>
       <c r="AM9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1749,116 +1755,116 @@
       <c r="B10">
         <v>1547</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
         <v>796</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10">
         <v>796</v>
       </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10">
         <v>3636</v>
       </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
         <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>81</v>
       </c>
       <c r="R10">
         <v>4</v>
       </c>
       <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
         <v>1922</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1950</v>
       </c>
-      <c r="U10" t="s">
-        <v>83</v>
-      </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X10" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z10" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>2</v>
       </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
       <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
         <v>5</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>93</v>
       </c>
       <c r="AM10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1868,116 +1874,116 @@
       <c r="B11">
         <v>946</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
         <v>810</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11">
         <v>21780</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11">
+        <v>78</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1910</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1950</v>
       </c>
-      <c r="U11" t="s">
-        <v>83</v>
-      </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W11" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X11" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="Y11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>1</v>
       </c>
       <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
         <v>4</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>61</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
       </c>
       <c r="AK11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>93</v>
       </c>
       <c r="AM11">
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1987,119 +1993,119 @@
       <c r="B12">
         <v>1556</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
         <v>1317</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
         <v>649</v>
       </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12">
+        <v>53</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12">
         <v>8500</v>
       </c>
-      <c r="L12" t="s">
-        <v>63</v>
-      </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" t="s">
         <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>83</v>
       </c>
       <c r="R12">
         <v>4</v>
       </c>
       <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
         <v>1920</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1950</v>
       </c>
-      <c r="U12" t="s">
-        <v>51</v>
-      </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X12" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>93</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>3</v>
       </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
       <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
         <v>6</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>60</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
       </c>
       <c r="AK12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>93</v>
       </c>
       <c r="AM12">
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2109,119 +2115,119 @@
       <c r="B13">
         <v>2044</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
         <v>1484</v>
       </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13">
         <v>771</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13">
         <v>10320</v>
       </c>
-      <c r="L13" t="s">
-        <v>63</v>
-      </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13">
+        <v>78</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1910</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1950</v>
       </c>
-      <c r="U13" t="s">
-        <v>83</v>
-      </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W13" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X13" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z13" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB13">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC13">
         <v>2</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
       <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>3</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
       <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
         <v>6</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>60</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
       </c>
       <c r="AK13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>93</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2231,107 +2237,107 @@
       <c r="B14">
         <v>207</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
         <v>1092</v>
       </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>44</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14">
         <v>5600</v>
       </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
         <v>73</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1930</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1950</v>
       </c>
-      <c r="U14" t="s">
-        <v>84</v>
-      </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="X14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB14">
+        <v>57</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC14">
         <v>2</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
       <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>3</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>7</v>
       </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>93</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -2347,113 +2353,113 @@
       <c r="B15">
         <v>307</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
         <v>1044</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
         <v>540</v>
       </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15">
         <v>8712</v>
       </c>
-      <c r="L15" t="s">
-        <v>63</v>
-      </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
       </c>
       <c r="R15">
         <v>5</v>
       </c>
       <c r="S15">
-        <v>1952</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>1952</v>
       </c>
-      <c r="U15" t="s">
-        <v>84</v>
+      <c r="U15">
+        <v>1952</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X15" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z15" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="AA15" t="s">
         <v>91</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
+      <c r="AB15" t="s">
+        <v>93</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>2</v>
       </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
       <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
         <v>4</v>
       </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI15">
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ15">
         <v>2</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>61</v>
-      </c>
       <c r="AK15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>93</v>
       </c>
       <c r="AM15">
         <v>0</v>
@@ -2469,113 +2475,113 @@
       <c r="B16">
         <v>791</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
         <v>1276</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
         <v>1276</v>
       </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16">
         <v>9571</v>
       </c>
-      <c r="L16" t="s">
-        <v>65</v>
-      </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
         <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16">
+        <v>78</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R16">
         <v>5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3</v>
-      </c>
-      <c r="S16">
-        <v>1958</v>
       </c>
       <c r="T16">
         <v>1958</v>
       </c>
-      <c r="U16" t="s">
-        <v>83</v>
+      <c r="U16">
+        <v>1958</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W16" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X16" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z16" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>94</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>3</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
       <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
         <v>5</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>61</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
       </c>
       <c r="AK16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>94</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -2591,116 +2597,116 @@
       <c r="B17">
         <v>768</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
         <v>1112</v>
       </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17">
         <v>585</v>
       </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
         <v>9780</v>
       </c>
-      <c r="L17" t="s">
-        <v>65</v>
-      </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
         <v>73</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17">
+        <v>78</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>82</v>
+      </c>
+      <c r="R17">
         <v>5</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1934</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1950</v>
       </c>
-      <c r="U17" t="s">
-        <v>83</v>
-      </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="X17" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Y17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z17" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB17">
+        <v>90</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC17">
         <v>2</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>4</v>
       </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
       <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
         <v>6</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>60</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
       </c>
       <c r="AK17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL17">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>93</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
         <v>0</v>
@@ -2713,119 +2719,119 @@
       <c r="B18">
         <v>278</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
         <v>1120</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
         <v>744</v>
       </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18">
         <v>11792</v>
       </c>
-      <c r="L18" t="s">
-        <v>65</v>
-      </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
         <v>73</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>5</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1948</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1950</v>
       </c>
-      <c r="U18" t="s">
-        <v>83</v>
-      </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W18" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X18" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>93</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>2</v>
       </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
       <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
         <v>5</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI18">
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ18">
         <v>2</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>60</v>
-      </c>
       <c r="AK18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>99</v>
       </c>
       <c r="AM18">
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2835,116 +2841,116 @@
       <c r="B19">
         <v>2670</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
         <v>1020</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
         <v>1020</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19">
         <v>4761</v>
       </c>
-      <c r="L19" t="s">
-        <v>63</v>
-      </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
         <v>73</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>84</v>
       </c>
       <c r="R19">
         <v>3</v>
       </c>
       <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
         <v>1918</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1950</v>
       </c>
-      <c r="U19" t="s">
-        <v>83</v>
-      </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W19" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X19" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z19" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>93</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
       <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
         <v>5</v>
       </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL19">
-        <v>0</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>93</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2954,119 +2960,119 @@
       <c r="B20">
         <v>696</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
         <v>1131</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
         <v>676</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
       </c>
       <c r="G20" t="s">
         <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20">
         <v>5720</v>
       </c>
-      <c r="L20" t="s">
-        <v>64</v>
-      </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20">
+        <v>78</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20">
         <v>5</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1941</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1950</v>
       </c>
-      <c r="U20" t="s">
-        <v>83</v>
-      </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W20" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X20" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z20" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>94</v>
       </c>
       <c r="AC20">
         <v>1</v>
       </c>
       <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
         <v>3</v>
       </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
       <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
         <v>5</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL20" t="s">
         <v>94</v>
       </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
       <c r="AM20">
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3076,113 +3082,113 @@
       <c r="B21">
         <v>2240</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
         <v>1077</v>
       </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
         <v>961</v>
       </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21">
         <v>8967</v>
       </c>
-      <c r="L21" t="s">
-        <v>63</v>
-      </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
         <v>73</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R21">
         <v>5</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1920</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1950</v>
       </c>
-      <c r="U21" t="s">
-        <v>83</v>
-      </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W21" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X21" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z21" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>94</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>2</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
       <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
         <v>6</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>60</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ21">
+        <v>1</v>
       </c>
       <c r="AK21" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>93</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -3198,119 +3204,119 @@
       <c r="B22">
         <v>2603</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
         <v>1760</v>
       </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
         <v>1077</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22">
         <v>10818</v>
       </c>
-      <c r="L22" t="s">
-        <v>64</v>
-      </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N22" t="s">
         <v>73</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>82</v>
       </c>
       <c r="R22">
         <v>4</v>
       </c>
       <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
         <v>1910</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1950</v>
       </c>
-      <c r="U22" t="s">
-        <v>83</v>
-      </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W22" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X22" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z22" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>94</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
         <v>4</v>
       </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
       <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>7</v>
       </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL22" t="s">
         <v>94</v>
       </c>
-      <c r="AI22">
-        <v>2</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
       <c r="AM22">
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3320,116 +3326,116 @@
       <c r="B23">
         <v>2904</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
         <v>1600</v>
       </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>44</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23">
         <v>31250</v>
       </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
       </c>
       <c r="R23">
         <v>3</v>
       </c>
       <c r="S23">
-        <v>1951</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>1951</v>
       </c>
-      <c r="U23" t="s">
-        <v>83</v>
+      <c r="U23">
+        <v>1951</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W23" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="X23" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="Y23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>94</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
         <v>3</v>
       </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
       <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
         <v>6</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL23" t="s">
         <v>93</v>
       </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3439,119 +3445,119 @@
       <c r="B24">
         <v>2659</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
         <v>1774</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
         <v>1095</v>
       </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24">
         <v>9600</v>
       </c>
-      <c r="L24" t="s">
-        <v>64</v>
-      </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N24" t="s">
         <v>73</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q24">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24">
         <v>4</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1900</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1950</v>
       </c>
-      <c r="U24" t="s">
-        <v>83</v>
-      </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W24" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X24" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z24" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB24">
+        <v>90</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC24">
         <v>2</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
       <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>4</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>2</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>8</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI24">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ24">
         <v>3</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>60</v>
-      </c>
       <c r="AK24" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL24">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>93</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3561,119 +3567,119 @@
       <c r="B25">
         <v>714</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
         <v>1510</v>
       </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
         <v>677</v>
       </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25">
         <v>9600</v>
       </c>
-      <c r="L25" t="s">
-        <v>64</v>
-      </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N25" t="s">
         <v>73</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P25" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>83</v>
       </c>
       <c r="R25">
         <v>4</v>
       </c>
       <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
         <v>1910</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1950</v>
       </c>
-      <c r="U25" t="s">
-        <v>83</v>
-      </c>
       <c r="V25" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" t="s">
+        <v>64</v>
+      </c>
+      <c r="X25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y25" t="s">
         <v>62</v>
       </c>
-      <c r="W25" t="s">
-        <v>86</v>
-      </c>
-      <c r="X25" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>61</v>
-      </c>
       <c r="Z25" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA25" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB25">
+        <v>90</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC25">
         <v>2</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>3</v>
       </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
       <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
         <v>7</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI25">
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ25">
         <v>2</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>61</v>
-      </c>
       <c r="AK25" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>93</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3683,116 +3689,116 @@
       <c r="B26">
         <v>701</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
         <v>1701</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26">
         <v>600</v>
       </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26">
         <v>7627</v>
       </c>
-      <c r="L26" t="s">
-        <v>64</v>
-      </c>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O26" t="s">
         <v>77</v>
       </c>
       <c r="P26" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q26">
+        <v>79</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1920</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1950</v>
       </c>
-      <c r="U26" t="s">
-        <v>83</v>
-      </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W26" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X26" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z26" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB26">
+        <v>90</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC26">
         <v>2</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
       <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <v>4</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>8</v>
       </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>93</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -3802,116 +3808,116 @@
       <c r="B27">
         <v>897</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
         <v>1529</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>44</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27">
         <v>8405</v>
       </c>
-      <c r="L27" t="s">
-        <v>65</v>
-      </c>
       <c r="M27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N27" t="s">
         <v>73</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q27">
+        <v>78</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>82</v>
+      </c>
+      <c r="R27">
         <v>4</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1945</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1950</v>
       </c>
-      <c r="U27" t="s">
-        <v>83</v>
-      </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="X27" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB27">
+        <v>57</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC27">
         <v>2</v>
       </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
       <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>4</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
       <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
         <v>9</v>
       </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI27">
-        <v>1</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>61</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
       </c>
       <c r="AK27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>93</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3921,116 +3927,116 @@
       <c r="B28">
         <v>2853</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
         <v>1522</v>
       </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
         <v>1008</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28">
         <v>6000</v>
       </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
       <c r="M28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N28" t="s">
         <v>73</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>82</v>
       </c>
       <c r="R28">
         <v>5</v>
       </c>
       <c r="S28">
+        <v>5</v>
+      </c>
+      <c r="T28">
         <v>1926</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1950</v>
       </c>
-      <c r="U28" t="s">
-        <v>83</v>
-      </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W28" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X28" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z28" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA28" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB28">
+        <v>90</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC28">
         <v>2</v>
       </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
       <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>4</v>
       </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
       <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
         <v>7</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>99</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4040,113 +4046,113 @@
       <c r="B29">
         <v>901</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
         <v>1560</v>
       </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
         <v>1150</v>
       </c>
-      <c r="F29" t="s">
-        <v>44</v>
-      </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29">
         <v>546</v>
       </c>
-      <c r="J29" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29">
+      <c r="K29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L29">
         <v>11767</v>
       </c>
-      <c r="L29" t="s">
-        <v>65</v>
-      </c>
       <c r="M29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N29" t="s">
         <v>73</v>
       </c>
       <c r="O29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P29" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>81</v>
       </c>
       <c r="R29">
         <v>5</v>
       </c>
       <c r="S29">
-        <v>1956</v>
+        <v>5</v>
       </c>
       <c r="T29">
         <v>1956</v>
       </c>
-      <c r="U29" t="s">
-        <v>84</v>
+      <c r="U29">
+        <v>1956</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="W29" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X29" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z29" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>94</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>2</v>
       </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
       <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
         <v>7</v>
       </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI29">
-        <v>1</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>61</v>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ29">
+        <v>1</v>
       </c>
       <c r="AK29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>94</v>
       </c>
       <c r="AM29">
         <v>0</v>
@@ -4162,119 +4168,119 @@
       <c r="B30">
         <v>2836</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
         <v>1669</v>
       </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30">
         <v>1093</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30">
+        <v>50</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30">
         <v>8707</v>
       </c>
-      <c r="L30" t="s">
-        <v>65</v>
-      </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O30" t="s">
         <v>76</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q30">
+        <v>78</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>82</v>
+      </c>
+      <c r="R30">
         <v>4</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>5</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1924</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1950</v>
       </c>
-      <c r="U30" t="s">
-        <v>83</v>
-      </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X30" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z30" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA30" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB30">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>93</v>
       </c>
       <c r="AC30">
         <v>1</v>
       </c>
       <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
         <v>4</v>
       </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
       <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
         <v>9</v>
       </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>61</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
       </c>
       <c r="AK30" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>94</v>
       </c>
       <c r="AM30">
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4284,119 +4290,119 @@
       <c r="B31">
         <v>799</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
         <v>1510</v>
       </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31">
         <v>755</v>
       </c>
-      <c r="F31" t="s">
-        <v>44</v>
-      </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31">
         <v>9084</v>
       </c>
-      <c r="L31" t="s">
-        <v>65</v>
-      </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q31">
+        <v>78</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31">
         <v>4</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>5</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1940</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1950</v>
       </c>
-      <c r="U31" t="s">
-        <v>83</v>
-      </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X31" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z31" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AA31" t="s">
         <v>92</v>
       </c>
-      <c r="AB31">
-        <v>1</v>
+      <c r="AB31" t="s">
+        <v>94</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>4</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
       <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
         <v>7</v>
       </c>
-      <c r="AG31">
-        <v>1</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>60</v>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ31">
+        <v>1</v>
       </c>
       <c r="AK31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL31">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>99</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4406,116 +4412,116 @@
       <c r="B32">
         <v>754</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
         <v>2128</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32">
         <v>1040</v>
       </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32">
+        <v>3000</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+      <c r="T32">
+        <v>1922</v>
+      </c>
+      <c r="U32">
+        <v>1950</v>
+      </c>
+      <c r="V32" t="s">
+        <v>86</v>
+      </c>
+      <c r="W32" t="s">
+        <v>63</v>
+      </c>
+      <c r="X32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>4</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
+      </c>
+      <c r="AG32">
+        <v>11</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
         <v>57</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32">
-        <v>3000</v>
-      </c>
-      <c r="L32" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q32">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <v>3</v>
-      </c>
-      <c r="S32">
-        <v>1922</v>
-      </c>
-      <c r="T32">
-        <v>1950</v>
-      </c>
-      <c r="U32" t="s">
-        <v>84</v>
-      </c>
-      <c r="V32" t="s">
-        <v>61</v>
-      </c>
-      <c r="W32" t="s">
-        <v>86</v>
-      </c>
-      <c r="X32" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>4</v>
-      </c>
-      <c r="AE32">
-        <v>2</v>
-      </c>
-      <c r="AF32">
-        <v>11</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>94</v>
       </c>
       <c r="AM32">
         <v>0</v>
       </c>
       <c r="AN32">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4525,116 +4531,116 @@
       <c r="B33">
         <v>187</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
         <v>2256</v>
       </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33">
         <v>840</v>
       </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33">
         <v>9045</v>
       </c>
-      <c r="L33" t="s">
-        <v>64</v>
-      </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N33" t="s">
         <v>73</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P33" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33">
+        <v>79</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33">
         <v>5</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>3</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1910</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>1950</v>
       </c>
-      <c r="U33" t="s">
-        <v>83</v>
-      </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W33" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X33" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z33" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AA33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB33">
+        <v>92</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC33">
         <v>2</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <v>4</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>2</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>12</v>
       </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL33">
-        <v>0</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>93</v>
       </c>
       <c r="AM33">
         <v>0</v>
       </c>
       <c r="AN33">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4644,119 +4650,119 @@
       <c r="B34">
         <v>1994</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
         <v>2337</v>
       </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
         <v>662</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34">
         <v>13600</v>
       </c>
-      <c r="L34" t="s">
-        <v>64</v>
-      </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N34" t="s">
         <v>73</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q34">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>83</v>
       </c>
       <c r="R34">
         <v>5</v>
       </c>
       <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
         <v>1900</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1950</v>
       </c>
-      <c r="U34" t="s">
-        <v>83</v>
-      </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W34" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X34" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z34" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA34" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB34">
+        <v>90</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC34">
         <v>2</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
       <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
         <v>5</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>2</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>10</v>
       </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="s">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL34" t="s">
         <v>94</v>
       </c>
-      <c r="AI34">
-        <v>2</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
       <c r="AM34">
         <v>0</v>
       </c>
       <c r="AN34">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4766,116 +4772,116 @@
       <c r="B35">
         <v>753</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
         <v>2229</v>
       </c>
-      <c r="D35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
         <v>755</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35">
         <v>5520</v>
       </c>
-      <c r="L35" t="s">
-        <v>64</v>
-      </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N35" t="s">
         <v>73</v>
       </c>
       <c r="O35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P35" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q35">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>82</v>
       </c>
       <c r="R35">
         <v>6</v>
       </c>
       <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
         <v>1912</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1950</v>
       </c>
-      <c r="U35" t="s">
-        <v>83</v>
-      </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W35" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X35" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z35" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA35" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>94</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <v>5</v>
       </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
       <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AG35">
         <v>8</v>
       </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>94</v>
       </c>
       <c r="AM35">
         <v>0</v>
       </c>
       <c r="AN35">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -4885,119 +4891,119 @@
       <c r="B36">
         <v>1996</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
         <v>2210</v>
       </c>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36">
         <v>1008</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36">
         <v>9900</v>
       </c>
-      <c r="L36" t="s">
-        <v>64</v>
-      </c>
       <c r="M36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N36" t="s">
         <v>73</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q36">
+        <v>78</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>83</v>
+      </c>
+      <c r="R36">
         <v>6</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>4</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>1880</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1950</v>
       </c>
-      <c r="U36" t="s">
-        <v>83</v>
-      </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W36" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X36" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z36" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AA36" t="s">
         <v>92</v>
       </c>
-      <c r="AB36">
+      <c r="AB36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC36">
         <v>2</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
       <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <v>5</v>
       </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
       <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
         <v>8</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI36">
-        <v>1</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>61</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
       </c>
       <c r="AK36" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>93</v>
       </c>
       <c r="AM36">
         <v>0</v>
       </c>
       <c r="AN36">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -5007,119 +5013,119 @@
       <c r="B37">
         <v>190</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
         <v>2290</v>
       </c>
-      <c r="D37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
         <v>777</v>
       </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37">
+        <v>51</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37">
         <v>11340</v>
       </c>
-      <c r="L37" t="s">
-        <v>64</v>
-      </c>
       <c r="M37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N37" t="s">
         <v>73</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P37" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q37">
+        <v>79</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+      <c r="R37">
         <v>4</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>6</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1885</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>1950</v>
       </c>
-      <c r="U37" t="s">
-        <v>83</v>
-      </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W37" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="X37" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Y37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z37" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA37" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB37">
+        <v>90</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC37">
         <v>2</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
       <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
         <v>4</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>2</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>11</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI37">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ37">
         <v>2</v>
       </c>
-      <c r="AJ37" t="s">
-        <v>61</v>
-      </c>
       <c r="AK37" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>93</v>
       </c>
       <c r="AM37">
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -5129,119 +5135,119 @@
       <c r="B38">
         <v>1314</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
         <v>2058</v>
       </c>
-      <c r="D38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
         <v>735</v>
       </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38">
         <v>319</v>
       </c>
-      <c r="J38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38">
+      <c r="K38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38">
         <v>9600</v>
       </c>
-      <c r="L38" t="s">
-        <v>64</v>
-      </c>
       <c r="M38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N38" t="s">
         <v>73</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q38">
+        <v>78</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38">
         <v>6</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>5</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>1917</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>1950</v>
       </c>
-      <c r="U38" t="s">
-        <v>83</v>
-      </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W38" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC38">
+        <v>1</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB38">
-        <v>1</v>
-      </c>
-      <c r="AC38">
-        <v>1</v>
-      </c>
-      <c r="AD38">
-        <v>3</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-      <c r="AF38">
-        <v>8</v>
-      </c>
-      <c r="AG38">
-        <v>1</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI38">
-        <v>2</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
+      <c r="AL38" t="s">
+        <v>99</v>
       </c>
       <c r="AM38">
         <v>0</v>
       </c>
       <c r="AN38">
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -5251,116 +5257,116 @@
       <c r="B39">
         <v>2279</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39">
         <v>2034</v>
       </c>
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>44</v>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39">
         <v>43500</v>
       </c>
-      <c r="L39" t="s">
-        <v>66</v>
-      </c>
       <c r="M39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q39">
+        <v>78</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R39">
         <v>3</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>5</v>
-      </c>
-      <c r="S39">
-        <v>1953</v>
       </c>
       <c r="T39">
         <v>1953</v>
       </c>
-      <c r="U39" t="s">
-        <v>83</v>
+      <c r="U39">
+        <v>1953</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W39" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X39" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="Y39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>94</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
         <v>2</v>
       </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
       <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39">
         <v>9</v>
       </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI39">
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ39">
         <v>3</v>
       </c>
-      <c r="AJ39" t="s">
-        <v>61</v>
-      </c>
       <c r="AK39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>93</v>
       </c>
       <c r="AM39">
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -5370,119 +5376,119 @@
       <c r="B40">
         <v>2562</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40">
         <v>2136</v>
       </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40">
         <v>2136</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
       </c>
       <c r="G40" t="s">
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40">
         <v>756</v>
       </c>
-      <c r="J40" t="s">
-        <v>61</v>
-      </c>
-      <c r="K40">
+      <c r="K40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40">
         <v>10680</v>
       </c>
-      <c r="L40" t="s">
-        <v>68</v>
-      </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N40" t="s">
         <v>73</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P40" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q40">
+        <v>78</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>81</v>
+      </c>
+      <c r="R40">
         <v>5</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>3</v>
-      </c>
-      <c r="S40">
-        <v>1951</v>
       </c>
       <c r="T40">
         <v>1951</v>
       </c>
-      <c r="U40" t="s">
-        <v>84</v>
+      <c r="U40">
+        <v>1951</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="W40" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="X40" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="Y40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z40" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="AA40" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB40">
+        <v>90</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC40">
         <v>2</v>
       </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
       <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
         <v>4</v>
       </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
       <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
         <v>7</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="s">
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL40" t="s">
         <v>94</v>
       </c>
-      <c r="AI40">
-        <v>2</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
-      </c>
       <c r="AM40">
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -5492,119 +5498,119 @@
       <c r="B41">
         <v>661</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41">
         <v>2377</v>
       </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
         <v>1313</v>
       </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41">
         <v>10410</v>
       </c>
-      <c r="L41" t="s">
-        <v>64</v>
-      </c>
       <c r="M41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N41" t="s">
         <v>73</v>
       </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P41" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q41">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>82</v>
+      </c>
+      <c r="R41">
         <v>4</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>5</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>1915</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>1950</v>
       </c>
-      <c r="U41" t="s">
-        <v>83</v>
-      </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="W41" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X41" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z41" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA41" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB41">
+        <v>90</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC41">
         <v>2</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
       <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
         <v>3</v>
       </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
       <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
         <v>8</v>
       </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AH41" t="s">
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL41" t="s">
         <v>94</v>
       </c>
-      <c r="AI41">
-        <v>2</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
-      </c>
       <c r="AM41">
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -5614,119 +5620,119 @@
       <c r="B42">
         <v>2028</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
         <v>2526</v>
       </c>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
         <v>714</v>
       </c>
-      <c r="F42" t="s">
-        <v>44</v>
-      </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
         <v>56</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42">
         <v>168</v>
       </c>
-      <c r="J42" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42">
+      <c r="K42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42">
         <v>8520</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>82</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42">
+        <v>1916</v>
+      </c>
+      <c r="U42">
+        <v>1950</v>
+      </c>
+      <c r="V42" t="s">
+        <v>85</v>
+      </c>
+      <c r="W42" t="s">
         <v>64</v>
       </c>
-      <c r="M42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N42" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q42">
-        <v>6</v>
-      </c>
-      <c r="R42">
-        <v>7</v>
-      </c>
-      <c r="S42">
-        <v>1916</v>
-      </c>
-      <c r="T42">
-        <v>1950</v>
-      </c>
-      <c r="U42" t="s">
-        <v>83</v>
-      </c>
-      <c r="V42" t="s">
-        <v>62</v>
-      </c>
-      <c r="W42" t="s">
-        <v>86</v>
-      </c>
       <c r="X42" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="Y42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z42" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA42" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB42">
+        <v>90</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC42">
         <v>2</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
       <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
         <v>5</v>
       </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
       <c r="AF42">
+        <v>1</v>
+      </c>
+      <c r="AG42">
         <v>10</v>
       </c>
-      <c r="AG42">
-        <v>1</v>
-      </c>
-      <c r="AH42" t="s">
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL42" t="s">
         <v>94</v>
       </c>
-      <c r="AI42">
-        <v>1</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
       <c r="AM42">
         <v>0</v>
       </c>
       <c r="AN42">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -5736,116 +5742,116 @@
       <c r="B43">
         <v>2214</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43">
         <v>2624</v>
       </c>
-      <c r="D43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43">
         <v>1370</v>
-      </c>
-      <c r="F43" t="s">
-        <v>44</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43">
         <v>1128</v>
       </c>
-      <c r="J43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43">
+      <c r="K43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43">
         <v>22420</v>
-      </c>
-      <c r="L43" t="s">
-        <v>69</v>
       </c>
       <c r="M43" t="s">
         <v>71</v>
       </c>
       <c r="N43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O43" t="s">
         <v>76</v>
       </c>
       <c r="P43" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q43">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>83</v>
       </c>
       <c r="R43">
         <v>6</v>
       </c>
       <c r="S43">
+        <v>6</v>
+      </c>
+      <c r="T43">
         <v>1918</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>1950</v>
       </c>
-      <c r="U43" t="s">
-        <v>84</v>
-      </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="W43" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="X43" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="Y43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z43" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB43">
+        <v>90</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC43">
         <v>2</v>
       </c>
-      <c r="AC43">
-        <v>1</v>
-      </c>
       <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
         <v>4</v>
       </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
       <c r="AF43">
+        <v>1</v>
+      </c>
+      <c r="AG43">
         <v>10</v>
       </c>
-      <c r="AG43">
-        <v>1</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI43">
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ43">
         <v>3</v>
       </c>
-      <c r="AJ43" t="s">
-        <v>61</v>
-      </c>
       <c r="AK43" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL43">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>93</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -5858,119 +5864,119 @@
       <c r="B44">
         <v>1289</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
         <v>2792</v>
       </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44">
         <v>1510</v>
       </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44">
+        <v>53</v>
+      </c>
+      <c r="I44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44">
         <v>493</v>
       </c>
-      <c r="J44" t="s">
-        <v>61</v>
-      </c>
-      <c r="K44">
+      <c r="K44" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44">
         <v>10440</v>
       </c>
-      <c r="L44" t="s">
-        <v>64</v>
-      </c>
       <c r="M44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N44" t="s">
         <v>73</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P44" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q44">
+        <v>78</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>82</v>
+      </c>
+      <c r="R44">
         <v>6</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>7</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>1920</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>1950</v>
       </c>
-      <c r="U44" t="s">
-        <v>83</v>
-      </c>
       <c r="V44" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="W44" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="X44" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="Y44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Z44" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AA44" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB44">
+        <v>90</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC44">
         <v>2</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
       <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
         <v>5</v>
       </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
       <c r="AF44">
+        <v>1</v>
+      </c>
+      <c r="AG44">
         <v>8</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>2</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL44" t="s">
         <v>94</v>
       </c>
-      <c r="AI44">
-        <v>2</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
       <c r="AM44">
         <v>0</v>
       </c>
       <c r="AN44">
-        <v>1027</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
